--- a/datasheets/Longinelli_1984.xlsx
+++ b/datasheets/Longinelli_1984.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
+    <t xml:space="preserve">refShort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homo sapiens</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/0016-7037(84)90259-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longinelli (1984)</t>
   </si>
   <si>
     <t xml:space="preserve">Lappland</t>
@@ -443,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AQ115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP22" activeCellId="0" sqref="AP22"/>
+      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,10 +484,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="43" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="14.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,37 +615,40 @@
       <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>13.97</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="n">
@@ -699,42 +709,45 @@
         <v>-14.5</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>14.3</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="n">
@@ -795,42 +808,45 @@
         <v>-17.7</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>15.6</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="n">
@@ -891,42 +907,45 @@
         <v>-15.1</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>16.91</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="n">
@@ -987,42 +1006,45 @@
         <v>-12.7</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>17.05</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="n">
@@ -1083,42 +1105,45 @@
         <v>-9.1</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.97</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="n">
@@ -1179,42 +1204,45 @@
         <v>-7.5</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>18.6</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="n">
@@ -1275,42 +1303,45 @@
         <v>-8</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>19.17</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="n">
@@ -1371,42 +1402,45 @@
         <v>-6.6</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19.23</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5" t="n">
@@ -1467,42 +1501,45 @@
         <v>-5.3</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>20.7</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5" t="n">
@@ -1563,45 +1600,48 @@
         <v>1.5</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>14.1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5" t="n">
@@ -1662,45 +1702,48 @@
         <v>-14.3</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>14.3</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>-10</v>
@@ -1760,45 +1803,48 @@
         <v>-12.7</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>15.4</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14" s="5" t="n">
         <v>-8</v>
@@ -1858,45 +1904,48 @@
         <v>-11</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>16.4</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15" s="5" t="n">
         <v>-7.4</v>
@@ -1956,45 +2005,48 @@
         <v>-7.8</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>16.7</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>-7.2</v>
@@ -2054,45 +2106,48 @@
         <v>-9.3</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>17</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>-6.8</v>
@@ -2152,45 +2207,48 @@
         <v>-9</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>17.2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N18" s="5" t="n">
         <v>-6.3</v>
@@ -2250,10 +2308,13 @@
         <v>-8.7</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AP18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/datasheets/Longinelli_1984.xlsx
+++ b/datasheets/Longinelli_1984.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="90">
   <si>
     <t xml:space="preserve">Collection number</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">d18Op</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d18Operror</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -449,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AQ115"/>
+  <dimension ref="A1:AR115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ2" activeCellId="0" sqref="AQ2:AQ18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,28 +467,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="19.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="13" style="1" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="48.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="26.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="14.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="14" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="37" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="26.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="14.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="45" style="1" width="11.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +528,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -618,98 +621,101 @@
       <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>13.97</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="n">
+      <c r="L2" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="n">
         <v>-12</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>66.1713</v>
       </c>
-      <c r="U2" s="6" t="n">
+      <c r="V2" s="6" t="n">
         <v>-36.0645</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="W2" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>-16.5</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>-17</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Z2" s="1" t="n">
         <v>-9.4</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="AA2" s="1" t="n">
         <v>-15.4</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AB2" s="1" t="n">
         <v>-17</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AC2" s="1" t="n">
         <v>-16.1</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AD2" s="1" t="n">
         <v>-14.8</v>
       </c>
-      <c r="AD2" s="1" t="n">
+      <c r="AE2" s="1" t="n">
         <v>-12</v>
       </c>
-      <c r="AE2" s="1" t="n">
+      <c r="AF2" s="1" t="n">
         <v>-10.9</v>
       </c>
-      <c r="AF2" s="1" t="n">
+      <c r="AG2" s="1" t="n">
         <v>-9.4</v>
       </c>
-      <c r="AG2" s="1" t="n">
+      <c r="AH2" s="1" t="n">
         <v>-11.9</v>
       </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AI2" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AK2" s="1" t="n">
         <v>-14.7</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AL2" s="1" t="n">
         <v>-14.5</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AP2" s="1" t="s">
         <v>53</v>
@@ -717,692 +723,713 @@
       <c r="AQ2" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>14.3</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="n">
+      <c r="L3" s="5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="n">
         <v>-12</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="U3" s="6" t="n">
         <v>67.4741</v>
       </c>
-      <c r="U3" s="6" t="n">
+      <c r="V3" s="6" t="n">
         <v>25.1658</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="W3" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="X3" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="Y3" s="1" t="n">
         <v>-18.8</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Z3" s="1" t="n">
         <v>-9.5</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="AA3" s="1" t="n">
         <v>-18.8</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AB3" s="1" t="n">
         <v>-18.6</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AC3" s="1" t="n">
         <v>-17.4</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AD3" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>-11.8</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AF3" s="1" t="n">
         <v>-10.3</v>
       </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AG3" s="1" t="n">
         <v>-9.5</v>
       </c>
-      <c r="AG3" s="1" t="n">
+      <c r="AH3" s="1" t="n">
         <v>-10.1</v>
       </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AI3" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>-13.9</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AK3" s="1" t="n">
         <v>-16.3</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AL3" s="1" t="n">
         <v>-17.7</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AP3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR3" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>15.6</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="n">
+      <c r="L4" s="5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="n">
         <v>-11</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="U4" s="6" t="n">
         <v>60.0636</v>
       </c>
-      <c r="U4" s="6" t="n">
+      <c r="V4" s="6" t="n">
         <v>25.0107</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>-11.5</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>-15.5</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>-15.5</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>-15.4</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AC4" s="1" t="n">
         <v>-14.8</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AD4" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AF4" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AG4" s="1" t="n">
         <v>-7.5</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AH4" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AI4" s="1" t="n">
         <v>-8.1</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>-10.9</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AK4" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AL4" s="1" t="n">
         <v>-15.1</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AP4" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR4" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>16.91</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5" t="n">
+      <c r="L5" s="5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="n">
         <v>-9.5</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="U5" s="6" t="n">
         <v>48.1757</v>
       </c>
-      <c r="U5" s="6" t="n">
+      <c r="V5" s="6" t="n">
         <v>16.3329</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>-8.5</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>-13.7</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="Z5" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>-13.7</v>
       </c>
-      <c r="AA5" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>-12.8</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AD5" s="1" t="n">
         <v>-8.8</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AG5" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AH5" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AH5" s="1" t="n">
+      <c r="AI5" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AK5" s="1" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AK5" s="1" t="n">
+      <c r="AL5" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AO5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AP5" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR5" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>17.05</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="n">
+      <c r="L6" s="5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="n">
         <v>-9</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="U6" s="6" t="n">
         <v>-54.1829</v>
       </c>
-      <c r="U6" s="6" t="n">
+      <c r="V6" s="6" t="n">
         <v>-67.4442</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>-10.7</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>-13.6</v>
       </c>
-      <c r="Y6" s="1" t="n">
+      <c r="Z6" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="Z6" s="1" t="n">
+      <c r="AA6" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AA6" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>-7.7</v>
       </c>
-      <c r="AB6" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="AD6" s="1" t="n">
         <v>-11.2</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>-12.3</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>-12.8</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AG6" s="1" t="n">
         <v>-13.6</v>
       </c>
-      <c r="AG6" s="1" t="n">
+      <c r="AH6" s="1" t="n">
         <v>-13.5</v>
       </c>
-      <c r="AH6" s="1" t="n">
+      <c r="AI6" s="1" t="n">
         <v>-13.2</v>
       </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>-11.8</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="AK6" s="1" t="n">
         <v>-10.2</v>
       </c>
-      <c r="AK6" s="1" t="n">
+      <c r="AL6" s="1" t="n">
         <v>-9.1</v>
       </c>
-      <c r="AO6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AP6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR6" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>17.97</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="n">
+      <c r="L7" s="5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="n">
         <v>-7</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>39.053</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="V7" s="6" t="n">
         <v>13.1525</v>
       </c>
-      <c r="V7" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>501</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>-6.5</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="Y7" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="Y7" s="1" t="n">
+      <c r="Z7" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="Z7" s="1" t="n">
+      <c r="AA7" s="1" t="n">
         <v>-90</v>
       </c>
-      <c r="AA7" s="1" t="n">
+      <c r="AB7" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AB7" s="1" t="n">
+      <c r="AC7" s="1" t="n">
         <v>-7.8</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AD7" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>-3.1</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AF7" s="1" t="n">
         <v>-1.7</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AG7" s="1" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AG7" s="1" t="n">
+      <c r="AH7" s="1" t="n">
         <v>-2</v>
       </c>
-      <c r="AH7" s="1" t="n">
+      <c r="AI7" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>-4.2</v>
       </c>
-      <c r="AJ7" s="1" t="n">
+      <c r="AK7" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AK7" s="1" t="n">
+      <c r="AL7" s="1" t="n">
         <v>-7.5</v>
       </c>
-      <c r="AO7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AP7" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR7" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>18.6</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="n">
+      <c r="L8" s="5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="n">
         <v>-6</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>43.3222</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="V8" s="6" t="n">
         <v>10.1931</v>
       </c>
-      <c r="V8" s="1" t="n">
+      <c r="W8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="W8" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="X8" s="1" t="n">
+      <c r="Y8" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="Y8" s="1" t="n">
+      <c r="Z8" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="Z8" s="1" t="n">
+      <c r="AA8" s="1" t="n">
         <v>-8.9</v>
       </c>
-      <c r="AA8" s="1" t="n">
+      <c r="AB8" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AB8" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>-7.3</v>
       </c>
-      <c r="AC8" s="1" t="n">
+      <c r="AD8" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AE8" s="1" t="n">
+      <c r="AF8" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AF8" s="1" t="n">
+      <c r="AG8" s="1" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AG8" s="1" t="n">
+      <c r="AH8" s="1" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AH8" s="1" t="n">
+      <c r="AI8" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AI8" s="1" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AJ8" s="1" t="n">
+      <c r="AK8" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="AK8" s="1" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AP8" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR8" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>19.17</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5" t="n">
+      <c r="L9" s="5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5" t="n">
         <v>-5</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="U9" s="6" t="n">
         <v>37.0444</v>
       </c>
-      <c r="U9" s="6" t="n">
+      <c r="V9" s="6" t="n">
         <v>15.1615</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="W9" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="X9" s="1" t="n">
         <v>-5.4</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="Y9" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="Y9" s="1" t="n">
+      <c r="Z9" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Z9" s="1" t="n">
+      <c r="AA9" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AA9" s="1" t="n">
+      <c r="AB9" s="1" t="n">
         <v>-7.2</v>
       </c>
-      <c r="AB9" s="1" t="n">
+      <c r="AC9" s="1" t="n">
         <v>-7.3</v>
       </c>
-      <c r="AC9" s="1" t="n">
+      <c r="AD9" s="1" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AD9" s="1" t="n">
+      <c r="AE9" s="1" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AE9" s="1" t="n">
+      <c r="AF9" s="1" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AF9" s="1" t="n">
+      <c r="AG9" s="1" t="n">
         <v>-0.7</v>
       </c>
-      <c r="AG9" s="1" t="n">
+      <c r="AH9" s="1" t="n">
         <v>-0.9</v>
       </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AI9" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AK9" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AL9" s="1" t="n">
         <v>-6.6</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AP9" s="1" t="s">
         <v>53</v>
@@ -1410,197 +1437,203 @@
       <c r="AQ9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR9" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>19.23</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="n">
+      <c r="L10" s="5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="n">
         <v>-4.5</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="U10" s="6" t="n">
         <v>32.5313</v>
       </c>
-      <c r="U10" s="6" t="n">
+      <c r="V10" s="6" t="n">
         <v>13.1128</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="W10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="X10" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="Y10" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="Y10" s="1" t="n">
+      <c r="Z10" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="Z10" s="1" t="n">
+      <c r="AA10" s="1" t="n">
         <v>-6.3</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>-5.1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-5.1</v>
       </c>
       <c r="AC10" s="1" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AD10" s="1" t="n">
+      <c r="AE10" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AE10" s="1" t="n">
+      <c r="AF10" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="AF10" s="1" t="n">
+      <c r="AG10" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG10" s="1" t="n">
+      <c r="AH10" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="AH10" s="1" t="n">
+      <c r="AI10" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>-1.5</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AK10" s="1" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AL10" s="1" t="n">
         <v>-5.3</v>
       </c>
-      <c r="AO10" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AP10" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR10" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>20.7</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5" t="n">
+      <c r="L11" s="5" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="n">
         <v>-2</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="U11" s="6" t="n">
         <v>2.0333</v>
       </c>
-      <c r="U11" s="6" t="n">
+      <c r="V11" s="6" t="n">
         <v>45.1823</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="W11" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Z11" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="Z11" s="1" t="n">
+      <c r="AA11" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="AA11" s="1" t="n">
+      <c r="AB11" s="1" t="n">
         <v>3.5</v>
       </c>
-      <c r="AB11" s="1" t="n">
+      <c r="AC11" s="1" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>0.7</v>
       </c>
       <c r="AD11" s="1" t="n">
         <v>0.7</v>
       </c>
       <c r="AE11" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AF11" s="1" t="n">
         <v>2.8</v>
       </c>
-      <c r="AF11" s="1" t="n">
+      <c r="AG11" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="AG11" s="1" t="n">
+      <c r="AH11" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="AH11" s="1" t="n">
+      <c r="AI11" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AK11" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AL11" s="1" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="AP11" s="1" t="s">
         <v>53</v>
@@ -1608,1183 +1641,1240 @@
       <c r="AQ11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR11" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>14.1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5" t="n">
+      <c r="L12" s="5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="U12" s="6" t="n">
         <v>46.1032</v>
       </c>
-      <c r="U12" s="6" t="n">
+      <c r="V12" s="6" t="n">
         <v>6.3219</v>
       </c>
-      <c r="V12" s="1" t="n">
+      <c r="W12" s="1" t="n">
         <v>1626</v>
       </c>
-      <c r="W12" s="1" t="n">
+      <c r="X12" s="1" t="n">
         <v>-11.4</v>
       </c>
-      <c r="X12" s="1" t="n">
+      <c r="Y12" s="1" t="n">
         <v>-15.2</v>
       </c>
-      <c r="Y12" s="1" t="n">
+      <c r="Z12" s="1" t="n">
         <v>-5.2</v>
-      </c>
-      <c r="Z12" s="1" t="n">
-        <v>-15.2</v>
       </c>
       <c r="AA12" s="1" t="n">
         <v>-15.2</v>
       </c>
       <c r="AB12" s="1" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="AC12" s="1" t="n">
         <v>-13.6</v>
       </c>
-      <c r="AC12" s="1" t="n">
+      <c r="AD12" s="1" t="n">
         <v>-11.1</v>
       </c>
-      <c r="AD12" s="1" t="n">
+      <c r="AE12" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AE12" s="1" t="n">
+      <c r="AF12" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="AF12" s="1" t="n">
+      <c r="AG12" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AG12" s="1" t="n">
+      <c r="AH12" s="1" t="n">
         <v>-5.6</v>
       </c>
-      <c r="AH12" s="1" t="n">
+      <c r="AI12" s="1" t="n">
         <v>-6.9</v>
       </c>
-      <c r="AI12" s="1" t="n">
+      <c r="AJ12" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AJ12" s="1" t="n">
+      <c r="AK12" s="1" t="n">
         <v>-13.1</v>
       </c>
-      <c r="AK12" s="1" t="n">
+      <c r="AL12" s="1" t="n">
         <v>-14.3</v>
       </c>
-      <c r="AO12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AP12" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AQ12" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR12" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>14.3</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="5" t="n">
+      <c r="M13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="5" t="n">
         <v>-10</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="U13" s="6" t="n">
         <v>48.1314</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="V13" s="6" t="n">
         <v>16.2248</v>
       </c>
-      <c r="V13" s="1" t="n">
+      <c r="W13" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="W13" s="1" t="n">
+      <c r="X13" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="X13" s="1" t="n">
+      <c r="Y13" s="1" t="n">
         <v>-13.7</v>
       </c>
-      <c r="Y13" s="1" t="n">
+      <c r="Z13" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="Z13" s="1" t="n">
+      <c r="AA13" s="1" t="n">
         <v>-13.7</v>
       </c>
-      <c r="AA13" s="1" t="n">
+      <c r="AB13" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AB13" s="1" t="n">
+      <c r="AC13" s="1" t="n">
         <v>-11.3</v>
       </c>
-      <c r="AC13" s="1" t="n">
+      <c r="AD13" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AD13" s="1" t="n">
+      <c r="AE13" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AE13" s="1" t="n">
+      <c r="AF13" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AF13" s="1" t="n">
+      <c r="AG13" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AG13" s="1" t="n">
+      <c r="AH13" s="1" t="n">
         <v>-5.2</v>
       </c>
-      <c r="AH13" s="1" t="n">
+      <c r="AI13" s="1" t="n">
         <v>-5.7</v>
       </c>
-      <c r="AI13" s="1" t="n">
+      <c r="AJ13" s="1" t="n">
         <v>-7.4</v>
       </c>
-      <c r="AJ13" s="1" t="n">
+      <c r="AK13" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AK13" s="1" t="n">
+      <c r="AL13" s="1" t="n">
         <v>-12.7</v>
       </c>
-      <c r="AO13" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="AP13" s="1" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AQ13" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR13" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>15.4</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="5" t="n">
+      <c r="L14" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="5" t="n">
         <v>-8</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="U14" s="6" t="n">
         <v>48.5227</v>
       </c>
-      <c r="U14" s="6" t="n">
+      <c r="V14" s="6" t="n">
         <v>6.1229</v>
       </c>
-      <c r="V14" s="1" t="n">
+      <c r="W14" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="W14" s="1" t="n">
+      <c r="X14" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="X14" s="1" t="n">
+      <c r="Y14" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="Y14" s="1" t="n">
+      <c r="Z14" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="Z14" s="1" t="n">
+      <c r="AA14" s="1" t="n">
         <v>-11.6</v>
       </c>
-      <c r="AA14" s="1" t="n">
+      <c r="AB14" s="1" t="n">
         <v>-11.7</v>
       </c>
-      <c r="AB14" s="1" t="n">
+      <c r="AC14" s="1" t="n">
         <v>-10.5</v>
       </c>
-      <c r="AC14" s="1" t="n">
+      <c r="AD14" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AD14" s="1" t="n">
+      <c r="AE14" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AE14" s="1" t="n">
+      <c r="AF14" s="1" t="n">
         <v>-4.7</v>
       </c>
-      <c r="AF14" s="1" t="n">
+      <c r="AG14" s="1" t="n">
         <v>-3.6</v>
       </c>
-      <c r="AG14" s="1" t="n">
+      <c r="AH14" s="1" t="n">
         <v>-4</v>
       </c>
-      <c r="AH14" s="1" t="n">
+      <c r="AI14" s="1" t="n">
         <v>-4.9</v>
       </c>
-      <c r="AI14" s="1" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>-7.3</v>
       </c>
-      <c r="AJ14" s="1" t="n">
+      <c r="AK14" s="1" t="n">
         <v>-9.8</v>
       </c>
-      <c r="AK14" s="1" t="n">
+      <c r="AL14" s="1" t="n">
         <v>-11</v>
       </c>
-      <c r="AO14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="AP14" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AQ14" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR14" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>16.4</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="5" t="n">
+      <c r="L15" s="1" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="5" t="n">
         <v>-7.4</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="U15" s="6" t="n">
         <v>37.36</v>
       </c>
-      <c r="U15" s="6" t="n">
+      <c r="V15" s="6" t="n">
         <v>14.0055</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="W15" s="1" t="n">
         <v>622</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="X15" s="1" t="n">
         <v>-6.7</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="Y15" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Z15" s="1" t="n">
         <v>-1.5</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="AA15" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AB15" s="1" t="n">
         <v>-8.5</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AC15" s="1" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AD15" s="1" t="n">
         <v>-5.8</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AE15" s="1" t="n">
         <v>-3.3</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AF15" s="1" t="n">
         <v>-1.7</v>
-      </c>
-      <c r="AF15" s="1" t="n">
-        <v>-1.5</v>
       </c>
       <c r="AG15" s="1" t="n">
         <v>-1.5</v>
       </c>
       <c r="AH15" s="1" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AI15" s="1" t="n">
         <v>-4.8</v>
       </c>
-      <c r="AI15" s="1" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="AK15" s="1" t="n">
         <v>-6.4</v>
       </c>
-      <c r="AK15" s="1" t="n">
+      <c r="AL15" s="1" t="n">
         <v>-7.8</v>
       </c>
-      <c r="AO15" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="AP15" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AQ15" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR15" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="5" t="n">
+      <c r="L16" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="5" t="n">
         <v>-7.2</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="U16" s="6" t="n">
         <v>48.559</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="V16" s="6" t="n">
         <v>2.3813</v>
       </c>
-      <c r="V16" s="1" t="n">
+      <c r="W16" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="W16" s="1" t="n">
+      <c r="X16" s="1" t="n">
         <v>-6.8</v>
       </c>
-      <c r="X16" s="1" t="n">
+      <c r="Y16" s="1" t="n">
         <v>-9.9</v>
       </c>
-      <c r="Y16" s="1" t="n">
+      <c r="Z16" s="1" t="n">
         <v>-2.9</v>
-      </c>
-      <c r="Z16" s="1" t="n">
-        <v>-9.9</v>
       </c>
       <c r="AA16" s="1" t="n">
         <v>-9.9</v>
       </c>
       <c r="AB16" s="1" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="AC16" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AC16" s="1" t="n">
+      <c r="AD16" s="1" t="n">
         <v>-7.1</v>
       </c>
-      <c r="AD16" s="1" t="n">
+      <c r="AE16" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="AE16" s="1" t="n">
+      <c r="AF16" s="1" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AF16" s="1" t="n">
+      <c r="AG16" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AG16" s="1" t="n">
+      <c r="AH16" s="1" t="n">
         <v>-3.1</v>
       </c>
-      <c r="AH16" s="1" t="n">
+      <c r="AI16" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AI16" s="1" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>-6.2</v>
       </c>
-      <c r="AJ16" s="1" t="n">
+      <c r="AK16" s="1" t="n">
         <v>-8.2</v>
       </c>
-      <c r="AK16" s="1" t="n">
+      <c r="AL16" s="1" t="n">
         <v>-9.3</v>
       </c>
-      <c r="AO16" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AP16" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AQ16" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR16" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="5" t="n">
+      <c r="L17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="5" t="n">
         <v>-6.8</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="U17" s="6" t="n">
         <v>48.5247</v>
       </c>
-      <c r="U17" s="6" t="n">
+      <c r="V17" s="6" t="n">
         <v>0.1016</v>
       </c>
-      <c r="V17" s="1" t="n">
+      <c r="W17" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="W17" s="1" t="n">
+      <c r="X17" s="1" t="n">
         <v>-6.9</v>
       </c>
-      <c r="X17" s="1" t="n">
+      <c r="Y17" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="Y17" s="1" t="n">
+      <c r="Z17" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="Z17" s="1" t="n">
+      <c r="AA17" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="AA17" s="1" t="n">
+      <c r="AB17" s="1" t="n">
         <v>-9.7</v>
       </c>
-      <c r="AB17" s="1" t="n">
+      <c r="AC17" s="1" t="n">
         <v>-8.5</v>
       </c>
-      <c r="AC17" s="1" t="n">
+      <c r="AD17" s="1" t="n">
         <v>-7</v>
       </c>
-      <c r="AD17" s="1" t="n">
+      <c r="AE17" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="AE17" s="1" t="n">
+      <c r="AF17" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AF17" s="1" t="n">
+      <c r="AG17" s="1" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AG17" s="1" t="n">
+      <c r="AH17" s="1" t="n">
         <v>-2.9</v>
       </c>
-      <c r="AH17" s="1" t="n">
+      <c r="AI17" s="1" t="n">
         <v>-3.7</v>
       </c>
-      <c r="AI17" s="1" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="AJ17" s="1" t="n">
+      <c r="AK17" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AK17" s="1" t="n">
+      <c r="AL17" s="1" t="n">
         <v>-9</v>
       </c>
-      <c r="AO17" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AP17" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AQ17" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="AR17" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>17.2</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="5" t="n">
+      <c r="L18" s="1" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="5" t="n">
         <v>-6.3</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="U18" s="6" t="n">
         <v>44.044</v>
       </c>
-      <c r="U18" s="6" t="n">
+      <c r="V18" s="6" t="n">
         <v>10.0554</v>
       </c>
-      <c r="V18" s="1" t="n">
+      <c r="W18" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="W18" s="1" t="n">
+      <c r="X18" s="1" t="n">
         <v>-6.1</v>
       </c>
-      <c r="X18" s="1" t="n">
+      <c r="Y18" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="Y18" s="1" t="n">
+      <c r="Z18" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="Z18" s="1" t="n">
+      <c r="AA18" s="1" t="n">
         <v>-9.6</v>
       </c>
-      <c r="AA18" s="1" t="n">
+      <c r="AB18" s="1" t="n">
         <v>-9.2</v>
       </c>
-      <c r="AB18" s="1" t="n">
+      <c r="AC18" s="1" t="n">
         <v>-8</v>
       </c>
-      <c r="AC18" s="1" t="n">
+      <c r="AD18" s="1" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AD18" s="1" t="n">
+      <c r="AE18" s="1" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AE18" s="1" t="n">
+      <c r="AF18" s="1" t="n">
         <v>-3</v>
       </c>
-      <c r="AF18" s="1" t="n">
+      <c r="AG18" s="1" t="n">
         <v>-1.8</v>
       </c>
-      <c r="AG18" s="1" t="n">
+      <c r="AH18" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="AH18" s="1" t="n">
+      <c r="AI18" s="1" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AI18" s="1" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>-5.1</v>
       </c>
-      <c r="AJ18" s="1" t="n">
+      <c r="AK18" s="1" t="n">
         <v>-7.5</v>
       </c>
-      <c r="AK18" s="1" t="n">
+      <c r="AL18" s="1" t="n">
         <v>-8.7</v>
       </c>
-      <c r="AO18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AP18" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AQ18" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="T19" s="6"/>
+      <c r="N19" s="5"/>
       <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="T20" s="6"/>
+      <c r="N20" s="5"/>
       <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="T21" s="6"/>
+      <c r="N21" s="5"/>
       <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="T22" s="6"/>
+      <c r="N22" s="5"/>
       <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="T23" s="6"/>
+      <c r="N23" s="5"/>
       <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="T24" s="6"/>
+      <c r="N24" s="5"/>
       <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="T25" s="6"/>
+      <c r="N25" s="5"/>
       <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="T26" s="6"/>
+      <c r="N26" s="5"/>
       <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="T27" s="6"/>
+      <c r="N27" s="5"/>
       <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="T28" s="6"/>
+      <c r="N28" s="5"/>
       <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="T29" s="6"/>
+      <c r="N29" s="5"/>
       <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="T30" s="6"/>
+      <c r="N30" s="5"/>
       <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="T31" s="6"/>
+      <c r="N31" s="5"/>
       <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="T32" s="6"/>
+      <c r="N32" s="5"/>
       <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="T33" s="6"/>
+      <c r="N33" s="5"/>
       <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="T34" s="6"/>
+      <c r="N34" s="5"/>
       <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="T35" s="6"/>
+      <c r="N35" s="5"/>
       <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="T36" s="6"/>
+      <c r="N36" s="5"/>
       <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="T37" s="6"/>
+      <c r="N37" s="5"/>
       <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="T38" s="6"/>
+      <c r="N38" s="5"/>
       <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="T39" s="6"/>
+      <c r="N39" s="5"/>
       <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="T40" s="6"/>
+      <c r="N40" s="5"/>
       <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="T41" s="6"/>
+      <c r="N41" s="5"/>
       <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="T42" s="6"/>
+      <c r="N42" s="5"/>
       <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="T43" s="6"/>
+      <c r="N43" s="5"/>
       <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="T44" s="6"/>
+      <c r="N44" s="5"/>
       <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="T45" s="6"/>
+      <c r="N45" s="5"/>
       <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="T46" s="6"/>
+      <c r="N46" s="5"/>
       <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="T47" s="6"/>
+      <c r="N47" s="5"/>
       <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="T48" s="6"/>
+      <c r="N48" s="5"/>
       <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="T49" s="6"/>
+      <c r="N49" s="5"/>
       <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="T50" s="6"/>
+      <c r="N50" s="5"/>
       <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="T51" s="6"/>
+      <c r="N51" s="5"/>
       <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="T52" s="6"/>
+      <c r="N52" s="5"/>
       <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="T53" s="6"/>
+      <c r="N53" s="5"/>
       <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="T54" s="6"/>
+      <c r="N54" s="5"/>
       <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="T55" s="6"/>
+      <c r="N55" s="5"/>
       <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="6"/>
+      <c r="N56" s="5"/>
+      <c r="T56" s="7"/>
       <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="6"/>
+      <c r="N57" s="5"/>
+      <c r="T57" s="7"/>
       <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="6"/>
+      <c r="N58" s="5"/>
+      <c r="T58" s="7"/>
       <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="6"/>
+      <c r="N59" s="5"/>
+      <c r="T59" s="7"/>
       <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="T60" s="6"/>
+      <c r="N60" s="5"/>
       <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="T61" s="6"/>
+      <c r="N61" s="5"/>
       <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="T62" s="6"/>
+      <c r="N62" s="5"/>
       <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="T63" s="6"/>
+      <c r="N63" s="5"/>
       <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="T64" s="6"/>
+      <c r="N64" s="5"/>
       <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
